--- a/src/test/resources/test/file1.xlsx
+++ b/src/test/resources/test/file1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>registration_number</t>
   </si>
@@ -35,13 +35,25 @@
     <t>make</t>
   </si>
   <si>
-    <t>SK63ckc</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>Toyota</t>
+    <t>PY62 GYE</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>PX13 PXV</t>
+  </si>
+  <si>
+    <t>SK63CKC</t>
   </si>
 </sst>
 </file>
@@ -393,17 +405,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,16 +431,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>